--- a/Module2Homework-JULY/JulyBayesHW.xlsx
+++ b/Module2Homework-JULY/JulyBayesHW.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18067"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Documents\edxtake2module1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ferryto\Documents\GitHub\DAT222x\Module2Homework-JULY\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8910"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13990" windowHeight="12760" xr2:uid="{59527075-A603-4325-9547-F413D064DBEB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t xml:space="preserve"> A company has a plant in Houston and Dallas. 70% of the employees work in Houston and 30% work in Dallas. Each year 3% of the Houston employees are involved in an accident and 5% of the Dallas employees are involved in an accident. If you randomly choose an employee who had an accident last year, what is the chance they work in Houston?</t>
   </si>
@@ -75,11 +76,141 @@
       <t>Assume 1 in every 1000 people are liars. Also suppose a lie detector test is 98% accurate. That is, if a person is lying there is a 98% chance the test will indicate that they are lying. Also, if the person is not lying, there is a 98% chance the test will indicate the person is not lying, If the lie detector test indicates the person is lying, what is the chance the person is lying?</t>
     </r>
   </si>
+  <si>
+    <t>Houston</t>
+  </si>
+  <si>
+    <t>Dellas</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>Accident</t>
+  </si>
+  <si>
+    <t>No Accident</t>
+  </si>
+  <si>
+    <t>P(Accidient)</t>
+  </si>
+  <si>
+    <t>Lair</t>
+  </si>
+  <si>
+    <t>Non Lair</t>
+  </si>
+  <si>
+    <t>Accurate</t>
+  </si>
+  <si>
+    <t>Not Accurate</t>
+  </si>
+  <si>
+    <t>P(Houston and accident)</t>
+  </si>
+  <si>
+    <t>P(Dellas and accident)</t>
+  </si>
+  <si>
+    <t>P(Liar)</t>
+  </si>
+  <si>
+    <t>P(Accurate | non Liar)</t>
+  </si>
+  <si>
+    <t>P(Accurate | Liar)</t>
+  </si>
+  <si>
+    <t>P(Accurate)</t>
+  </si>
+  <si>
+    <t>P(Liar | Accurate)</t>
+  </si>
+  <si>
+    <t>State of world</t>
+  </si>
+  <si>
+    <t>GreenCab</t>
+  </si>
+  <si>
+    <t>BlueCab</t>
+  </si>
+  <si>
+    <t>Prior probabilities</t>
+  </si>
+  <si>
+    <t>P(GC)</t>
+  </si>
+  <si>
+    <t>P(BC)</t>
+  </si>
+  <si>
+    <t>Likeihoods</t>
+  </si>
+  <si>
+    <t>P(correct | BC)</t>
+  </si>
+  <si>
+    <t>P(correct | GC)</t>
+  </si>
+  <si>
+    <t>STATES OF WORLD 
+G = GREEN CAB 
+B = BLUE CAB 
+PRIOR PROBABILTIES 
+P(G) = 0.15 P(B) =0.85 
+LIKELIHOODS 
+P(SAYS GREEN|GREEN) = 0.80 
+P(SAYS GREEN|BLUE) = 0.2 
+POSTERIOR PROBABILITY 
+P(GREEN)*P(SAYS GREEN|GREEN) 
+----------------- 
+P(GREEN)*P(SAYS GREEN|GREEN)+P(B)*P(SAYS GREEN|BLUE) 
+NUMERATOR = 0.15*0.80 = 0.12 
+DENOMINATOR= 0.15*0.80 + 0.85*0.2= 0.29 
+ANSWER 
+0.41379 = 0.12/0.29</t>
+  </si>
+  <si>
+    <t>STATES OF WORLD 
+L = PERSON IS LYING 
+NL= PERSON IS NOT LYING 
+PRIOR PROBABILITIES 
+P(L) = 0.001 P(NL)= 0.999 
+LIKELIHOODS 
+P(TEST SAYS LIE|L) = 0.98 
+P(TEST SAYS LIE|NL)=0.02 
+POSTERIOR PROBABILITY 
+P(L)*P(TESTS SAYS L|L) 
+------------------------------- 
+P(L)*P(TESTS SAYS L|L)+P(NL)*P(TEST SAYS L|NL) 
+NUMERATOR= 0.001*0.98 
+DENOMINATOR= 0.001*0.98+ 0.999*0.02 
+ANSWER 
+0.0467557 = 0.001*0.98/(0.001*0.98+0.999*0.02)</t>
+  </si>
+  <si>
+    <t>H = Accident person is form Houston
+D = Accident person is from Dallas
+A = Person has accident
+Prior Probabilities
+P(H) = 0.7 P(D) =0.3
+Likelihoods
+P(A|H) = 0.03 P(A|D) = 0.05
+Posterior Probability
+P(H)*P(A|H)
+----------------------
+P(H)*P(A|H)+ P(D)*P(A|D)
+Numerator is 0.7*0.03
+Denominator is 0.7*(0.3) + (0.3)*(0.05)
+So answer is 0.5833</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6">
     <font>
       <sz val="11"/>
@@ -439,11 +570,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C3:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="48.1796875" defaultRowHeight="14.5"/>
@@ -460,32 +591,275 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="3:7" ht="101.5">
+    <row r="4" spans="3:7" ht="203">
       <c r="C4" s="1">
         <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="E4" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="3:7" ht="81.5">
+    <row r="5" spans="3:7" ht="275.5">
       <c r="C5" s="1">
         <v>2</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="3:7" ht="78.75" customHeight="1">
+      <c r="E5" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="3:7" ht="275.5">
       <c r="C6" s="4">
         <v>3</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>2</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBC4F1D7-CECD-4D71-87F7-C994D46E83FB}">
+  <dimension ref="A2:I25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A6:XFD8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="7" max="7" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.6328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:9">
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>0.7</v>
+      </c>
+      <c r="C3">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>0.03</v>
+      </c>
+      <c r="C4">
+        <v>0.05</v>
+      </c>
+      <c r="D4">
+        <f>(C4+B4)*B3</f>
+        <v>5.5999999999999994E-2</v>
+      </c>
+      <c r="G4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>0.97</v>
+      </c>
+      <c r="C5">
+        <v>0.95</v>
+      </c>
+      <c r="G5">
+        <f>B3*B4</f>
+        <v>2.0999999999999998E-2</v>
+      </c>
+      <c r="I5">
+        <f>C3*C4</f>
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="G7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7">
+        <f>G5+I5</f>
+        <v>3.5999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="I8">
+        <f>G5/H7</f>
+        <v>0.58333333333333337</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="B11">
+        <f>1/1000</f>
+        <v>1E-3</v>
+      </c>
+      <c r="C11">
+        <f>1-B11</f>
+        <v>0.999</v>
+      </c>
+      <c r="H11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>0.98</v>
+      </c>
+      <c r="C12">
+        <v>0.98</v>
+      </c>
+      <c r="D12">
+        <f>(C12+B12)*B11</f>
+        <v>1.9599999999999999E-3</v>
+      </c>
+      <c r="F12">
+        <f>B12*B11</f>
+        <v>9.7999999999999997E-4</v>
+      </c>
+      <c r="H12" t="s">
+        <v>16</v>
+      </c>
+      <c r="I12">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <f>1-B12</f>
+        <v>2.0000000000000018E-2</v>
+      </c>
+      <c r="C13">
+        <v>0.02</v>
+      </c>
+      <c r="H13" t="s">
+        <v>19</v>
+      </c>
+      <c r="I13">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="B14">
+        <f>B13*B12</f>
+        <v>1.9600000000000017E-2</v>
+      </c>
+      <c r="H14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25">
+        <v>0.8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>